--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdcd1lg2-Pdcd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdcd1lg2-Pdcd1.xlsx
@@ -534,28 +534,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1900676666666667</v>
+        <v>0.4549446666666667</v>
       </c>
       <c r="H2">
-        <v>0.570203</v>
+        <v>1.364834</v>
       </c>
       <c r="I2">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587819</v>
       </c>
       <c r="J2">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587818</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.015569</v>
+        <v>0.2773296666666667</v>
       </c>
       <c r="N2">
-        <v>0.046707</v>
+        <v>0.8319890000000001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.002959163502333333</v>
+        <v>0.1261696527584445</v>
       </c>
       <c r="R2">
-        <v>0.026632471521</v>
+        <v>1.135526874826</v>
       </c>
       <c r="S2">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587819</v>
       </c>
       <c r="T2">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>0.037963</v>
       </c>
       <c r="I3">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="J3">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.015569</v>
+        <v>0.2773296666666667</v>
       </c>
       <c r="N3">
-        <v>0.046707</v>
+        <v>0.8319890000000001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0001970153156666666</v>
+        <v>0.003509422045222222</v>
       </c>
       <c r="R3">
-        <v>0.001773137841</v>
+        <v>0.031584798407</v>
       </c>
       <c r="S3">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="T3">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4138746666666666</v>
+        <v>0.05795366666666666</v>
       </c>
       <c r="H4">
-        <v>1.241624</v>
+        <v>0.173861</v>
       </c>
       <c r="I4">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="J4">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.015569</v>
+        <v>0.2773296666666667</v>
       </c>
       <c r="N4">
-        <v>0.046707</v>
+        <v>0.8319890000000001</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.006443614685333332</v>
+        <v>0.01607227105877778</v>
       </c>
       <c r="R4">
-        <v>0.05799253216799999</v>
+        <v>0.144650439529</v>
       </c>
       <c r="S4">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="T4">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
     </row>
   </sheetData>
